--- a/src/predicciones/holt_winters/producto_156.xlsx
+++ b/src/predicciones/holt_winters/producto_156.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,838 +404,706 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44932</v>
       </c>
       <c r="B2">
-        <v>1.269620318890025</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44947</v>
       </c>
       <c r="B3">
-        <v>1.577700189341651</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44948</v>
       </c>
       <c r="B4">
-        <v>1.457258616032068</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44950</v>
       </c>
       <c r="B5">
-        <v>1.261433310315337</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44953</v>
       </c>
       <c r="B6">
-        <v>1.201792418717455</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44957</v>
       </c>
       <c r="B7">
-        <v>1.34103961511402</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44960</v>
       </c>
       <c r="B8">
-        <v>1.328217285878192</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44967</v>
       </c>
       <c r="B9">
-        <v>1.279316408033724</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44976</v>
       </c>
       <c r="B10">
-        <v>1.58739627848535</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44983</v>
       </c>
       <c r="B11">
-        <v>1.466954705175767</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44985</v>
       </c>
       <c r="B12">
-        <v>1.271129399459036</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44997</v>
       </c>
       <c r="B13">
-        <v>1.211488507861154</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>45000</v>
       </c>
       <c r="B14">
-        <v>1.350735704257719</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>45008</v>
       </c>
       <c r="B15">
-        <v>1.337913375021891</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>45016</v>
       </c>
       <c r="B16">
-        <v>1.289012497177423</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>45028</v>
       </c>
       <c r="B17">
-        <v>1.597092367629049</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>45036</v>
       </c>
       <c r="B18">
-        <v>1.476650794319466</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>45045</v>
       </c>
       <c r="B19">
-        <v>1.280825488602735</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45046</v>
       </c>
       <c r="B20">
-        <v>1.221184597004853</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45054</v>
       </c>
       <c r="B21">
-        <v>1.360431793401418</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45056</v>
       </c>
       <c r="B22">
-        <v>1.34760946416559</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45068</v>
       </c>
       <c r="B23">
-        <v>1.298708586321122</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45080</v>
       </c>
       <c r="B24">
-        <v>1.606788456772748</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45090</v>
       </c>
       <c r="B25">
-        <v>1.486346883463165</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45102</v>
       </c>
       <c r="B26">
-        <v>1.290521577746435</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45107</v>
       </c>
       <c r="B27">
-        <v>1.230880686148552</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45108</v>
       </c>
       <c r="B28">
-        <v>1.370127882545117</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45113</v>
       </c>
       <c r="B29">
-        <v>1.357305553309289</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45121</v>
       </c>
       <c r="B30">
-        <v>1.308404675464822</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45126</v>
       </c>
       <c r="B31">
-        <v>1.616484545916447</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45127</v>
       </c>
       <c r="B32">
-        <v>1.496042972606864</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45130</v>
       </c>
       <c r="B33">
-        <v>1.300217666890134</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45139</v>
       </c>
       <c r="B34">
-        <v>1.240576775292251</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45152</v>
       </c>
       <c r="B35">
-        <v>1.379823971688816</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45154</v>
       </c>
       <c r="B36">
-        <v>1.367001642452988</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45161</v>
       </c>
       <c r="B37">
-        <v>1.318100764608521</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45163</v>
       </c>
       <c r="B38">
-        <v>1.626180635060147</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45169</v>
       </c>
       <c r="B39">
-        <v>1.505739061750563</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45175</v>
       </c>
       <c r="B40">
-        <v>1.309913756033833</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45182</v>
       </c>
       <c r="B41">
-        <v>1.25027286443595</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45191</v>
       </c>
       <c r="B42">
-        <v>1.389520060832515</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45198</v>
       </c>
       <c r="B43">
-        <v>1.376697731596687</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45212</v>
       </c>
       <c r="B44">
-        <v>1.32779685375222</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45228</v>
       </c>
       <c r="B45">
-        <v>1.635876724203846</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45229</v>
       </c>
       <c r="B46">
-        <v>1.515435150894263</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45232</v>
       </c>
       <c r="B47">
-        <v>1.319609845177532</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45244</v>
       </c>
       <c r="B48">
-        <v>1.259968953579649</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45245</v>
       </c>
       <c r="B49">
-        <v>1.399216149976214</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45253</v>
       </c>
       <c r="B50">
-        <v>1.386393820740387</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45260</v>
       </c>
       <c r="B51">
-        <v>1.337492942895919</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45265</v>
       </c>
       <c r="B52">
-        <v>1.645572813347545</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45273</v>
       </c>
       <c r="B53">
-        <v>1.525131240037962</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45283</v>
       </c>
       <c r="B54">
-        <v>1.329305934321231</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45287</v>
       </c>
       <c r="B55">
-        <v>1.269665042723348</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45288</v>
       </c>
       <c r="B56">
-        <v>1.408912239119913</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45294</v>
       </c>
       <c r="B57">
-        <v>1.396089909884086</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45296</v>
       </c>
       <c r="B58">
-        <v>1.347189032039618</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45302</v>
       </c>
       <c r="B59">
-        <v>1.655268902491244</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45315</v>
       </c>
       <c r="B60">
-        <v>1.534827329181661</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45318</v>
       </c>
       <c r="B61">
-        <v>1.33900202346493</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45322</v>
       </c>
       <c r="B62">
-        <v>1.279361131867047</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45329</v>
       </c>
       <c r="B63">
-        <v>1.418608328263612</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45332</v>
       </c>
       <c r="B64">
-        <v>1.405785999027785</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45340</v>
       </c>
       <c r="B65">
-        <v>1.356885121183317</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>1.664964991634943</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>1.54452341832536</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>1.348698112608629</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>1.289057221010746</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>1.428304417407311</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>1.415482088171484</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>1.366581210327016</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>1.674661080778642</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>1.554219507469059</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>1.358394201752328</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>1.298753310154445</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>1.438000506551011</v>
-      </c>
-      <c r="C77">
         <v>1</v>
       </c>
     </row>
